--- a/biology/Zoologie/Carasobarbus/Carasobarbus.xlsx
+++ b/biology/Zoologie/Carasobarbus/Carasobarbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carasobarbus est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. 
 Ses espèces se rencontrent autour de la région du Proche-Orient.
 Comme beaucoup d'autres « barbes », il a longtemps été inclus dans le genre Barbus très paraphylétique dans sa vaste circonscription originelle. 
-Pour éviter une profusion de très petits genres, Carasobarbus semble assez proche du genre Barbus - avec notamment des barbillons et parentés typiques - pour y rester inclus, mais est plus proche encore des grandes espèces hexaploïdes aujourd'hui séparés dans Labeobarbus et finira peut-être par y être inclus avec quelques autres « barbes » étroitement liées (comme l'est maintenant par exemple l’espèce Labeobarbus reinii)[1].
+Pour éviter une profusion de très petits genres, Carasobarbus semble assez proche du genre Barbus - avec notamment des barbillons et parentés typiques - pour y rester inclus, mais est plus proche encore des grandes espèces hexaploïdes aujourd'hui séparés dans Labeobarbus et finira peut-être par y être inclus avec quelques autres « barbes » étroitement liées (comme l'est maintenant par exemple l’espèce Labeobarbus reinii).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 mars 2023)[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 mars 2023):
 Carasobarbus apoensis (Banister &amp; M. A. Clarke, 1977)
 Carasobarbus canis (Valenciennes, 1842)
 Carasobarbus chantrei (Sauvage, 1882)
